--- a/media/project_profiles/the_lines_1_VbNIA8H.xlsx
+++ b/media/project_profiles/the_lines_1_VbNIA8H.xlsx
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -696,7 +696,7 @@
         <v>9.510565163</v>
       </c>
       <c r="C27" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">

--- a/media/project_profiles/the_lines_1_VbNIA8H.xlsx
+++ b/media/project_profiles/the_lines_1_VbNIA8H.xlsx
@@ -421,7 +421,7 @@
         <v>-9.510565163</v>
       </c>
       <c r="C2" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -432,7 +432,7 @@
         <v>-11.07620484</v>
       </c>
       <c r="C3" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>-9.332369931</v>
       </c>
       <c r="C4" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -454,7 +454,7 @@
         <v>-13.66151281</v>
       </c>
       <c r="C5" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -465,7 +465,7 @@
         <v>-14.64040925</v>
       </c>
       <c r="C6" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -476,7 +476,7 @@
         <v>-15.38841769</v>
       </c>
       <c r="C7" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>-15.89374158</v>
       </c>
       <c r="C8" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
@@ -498,7 +498,7 @@
         <v>-16.14841168</v>
       </c>
       <c r="C9" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>-16.14841168</v>
       </c>
       <c r="C10" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
         <v>-15.89374158</v>
       </c>
       <c r="C11" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12">
@@ -531,7 +531,7 @@
         <v>-15.38841769</v>
       </c>
       <c r="C12" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>-14.64040925</v>
       </c>
       <c r="C13" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14">
@@ -553,7 +553,7 @@
         <v>-13.66151281</v>
       </c>
       <c r="C14" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15">
@@ -564,7 +564,7 @@
         <v>-12.46716616</v>
       </c>
       <c r="C15" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16">
@@ -575,7 +575,7 @@
         <v>-11.07620484</v>
       </c>
       <c r="C16" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17">
@@ -586,7 +586,7 @@
         <v>-9.510565163</v>
       </c>
       <c r="C17" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18">
@@ -597,7 +597,7 @@
         <v>-7.794938189</v>
       </c>
       <c r="C18" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19">
@@ -608,7 +608,7 @@
         <v>-5.956380383</v>
       </c>
       <c r="C19" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20">
@@ -619,7 +619,7 @@
         <v>-4.023886901</v>
       </c>
       <c r="C20" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21">
@@ -630,7 +630,7 @@
         <v>-2.027934318</v>
       </c>
       <c r="C21" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="22">
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23">
@@ -652,7 +652,7 @@
         <v>2.027934318</v>
       </c>
       <c r="C23" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="24">
@@ -663,7 +663,7 @@
         <v>4.023886901</v>
       </c>
       <c r="C24" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="25">
@@ -674,7 +674,7 @@
         <v>5.956380383</v>
       </c>
       <c r="C25" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26">
@@ -685,7 +685,7 @@
         <v>7.794938189</v>
       </c>
       <c r="C26" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="27">
@@ -696,7 +696,7 @@
         <v>9.510565163</v>
       </c>
       <c r="C27" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         <v>11.07620484</v>
       </c>
       <c r="C28" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29">
@@ -718,7 +718,7 @@
         <v>11.99746403</v>
       </c>
       <c r="C29" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30">
@@ -729,7 +729,7 @@
         <v>13.66151281</v>
       </c>
       <c r="C30" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31">
@@ -740,7 +740,7 @@
         <v>14.64040925</v>
       </c>
       <c r="C31" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32">
@@ -751,7 +751,7 @@
         <v>15.38841769</v>
       </c>
       <c r="C32" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         <v>15.89374158</v>
       </c>
       <c r="C33" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="34">
@@ -773,7 +773,7 @@
         <v>16.14841168</v>
       </c>
       <c r="C34" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35">
@@ -784,7 +784,7 @@
         <v>16.14841168</v>
       </c>
       <c r="C35" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36">
@@ -795,7 +795,7 @@
         <v>15.89374158</v>
       </c>
       <c r="C36" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="37">
@@ -806,7 +806,7 @@
         <v>15.38841769</v>
       </c>
       <c r="C37" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38">
@@ -817,7 +817,7 @@
         <v>14.64040925</v>
       </c>
       <c r="C38" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="39">
@@ -828,7 +828,7 @@
         <v>13.66151281</v>
       </c>
       <c r="C39" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="40">
@@ -839,7 +839,7 @@
         <v>12.46716616</v>
       </c>
       <c r="C40" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="41">
@@ -850,7 +850,7 @@
         <v>11.07620484</v>
       </c>
       <c r="C41" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="42">
@@ -861,7 +861,7 @@
         <v>9.510565163</v>
       </c>
       <c r="C42" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="43">
@@ -872,7 +872,7 @@
         <v>7.794938189</v>
       </c>
       <c r="C43" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44">
@@ -883,7 +883,7 @@
         <v>5.956380383</v>
       </c>
       <c r="C44" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="45">
@@ -894,7 +894,7 @@
         <v>4.023886901</v>
       </c>
       <c r="C45" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="46">
@@ -905,7 +905,7 @@
         <v>2.027934318</v>
       </c>
       <c r="C46" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="47">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="48">
@@ -927,7 +927,7 @@
         <v>-2.027934318</v>
       </c>
       <c r="C48" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="49">
@@ -938,7 +938,7 @@
         <v>-4.023886901</v>
       </c>
       <c r="C49" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="50">
@@ -949,7 +949,7 @@
         <v>-5.956380383</v>
       </c>
       <c r="C50" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="51">
@@ -960,7 +960,7 @@
         <v>-7.794938189</v>
       </c>
       <c r="C51" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="52">
@@ -971,7 +971,7 @@
         <v>-9.510565163</v>
       </c>
       <c r="C52" t="str">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
